--- a/library/Library_H.BROWN_10.17.20.xlsx
+++ b/library/Library_H.BROWN_10.17.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C33E8-D79C-8D45-AF8F-47B054EDBBB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEABE46-1C92-C549-8300-14DD1FA24130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="460" windowWidth="15880" windowHeight="18940" xr2:uid="{C962EFED-EE5D-F347-BBE6-E9C27EED4360}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="69">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -150,23 +150,104 @@
     <t>H.BROWN</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>SIC_Index2_06</t>
   </si>
   <si>
     <t>GACCTT</t>
+  </si>
+  <si>
+    <t>Index1_1</t>
+  </si>
+  <si>
+    <t>Index1_2</t>
+  </si>
+  <si>
+    <t>Index1_3</t>
+  </si>
+  <si>
+    <t>Index1_4</t>
+  </si>
+  <si>
+    <t>Index1_5</t>
+  </si>
+  <si>
+    <t>Index1_6</t>
+  </si>
+  <si>
+    <t>Index1_7</t>
+  </si>
+  <si>
+    <t>Index1_8</t>
+  </si>
+  <si>
+    <t>Index1_9</t>
+  </si>
+  <si>
+    <t>Index1_10</t>
+  </si>
+  <si>
+    <t>Index1_11</t>
+  </si>
+  <si>
+    <t>Index1_12</t>
+  </si>
+  <si>
+    <t>Index1_13</t>
+  </si>
+  <si>
+    <t>Index1_14</t>
+  </si>
+  <si>
+    <t>Index1_15</t>
+  </si>
+  <si>
+    <t>Index1_16</t>
+  </si>
+  <si>
+    <t>Index1_17</t>
+  </si>
+  <si>
+    <t>Index1_18</t>
+  </si>
+  <si>
+    <t>Index1_19</t>
+  </si>
+  <si>
+    <t>Index1_20</t>
+  </si>
+  <si>
+    <t>Index1_21</t>
+  </si>
+  <si>
+    <t>Index1_22</t>
+  </si>
+  <si>
+    <t>Index1_23</t>
+  </si>
+  <si>
+    <t>Index1_24</t>
+  </si>
+  <si>
+    <t>Index1_25</t>
+  </si>
+  <si>
+    <t>Index1_26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,8 +273,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +593,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J27"/>
+      <selection activeCell="L2" sqref="L2:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,21 +656,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="b">
+      <c r="L2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -611,22 +693,22 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="G3" t="s">
+        <v>44</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="b">
+      <c r="L3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -649,22 +731,22 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="G4" t="s">
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" t="b">
+      <c r="L4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -687,22 +769,22 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>4</v>
+      <c r="G5" t="s">
+        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="b">
+      <c r="L5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -725,22 +807,22 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>5</v>
+      <c r="G6" t="s">
+        <v>47</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="b">
+      <c r="L6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -763,22 +845,22 @@
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>6</v>
+      <c r="G7" t="s">
+        <v>48</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" t="b">
+      <c r="L7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -801,22 +883,22 @@
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8">
-        <v>7</v>
+      <c r="G8" t="s">
+        <v>49</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="b">
+      <c r="L8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -839,22 +921,22 @@
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>8</v>
+      <c r="G9" t="s">
+        <v>50</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="b">
+      <c r="L9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -877,22 +959,22 @@
       <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>9</v>
+      <c r="G10" t="s">
+        <v>51</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
-      <c r="L10" t="b">
+      <c r="L10" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -915,22 +997,22 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>10</v>
+      <c r="G11" t="s">
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" t="b">
+      <c r="L11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -953,22 +1035,22 @@
       <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12">
-        <v>11</v>
+      <c r="G12" t="s">
+        <v>53</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" t="b">
+      <c r="L12" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -991,22 +1073,22 @@
       <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>12</v>
+      <c r="G13" t="s">
+        <v>54</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" t="b">
+      <c r="L13" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1029,22 +1111,22 @@
       <c r="F14">
         <v>13</v>
       </c>
-      <c r="G14">
-        <v>13</v>
+      <c r="G14" t="s">
+        <v>55</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" t="b">
+      <c r="L14" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1067,22 +1149,22 @@
       <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15">
-        <v>14</v>
+      <c r="G15" t="s">
+        <v>56</v>
       </c>
       <c r="H15" t="s">
         <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s">
         <v>13</v>
       </c>
-      <c r="L15" t="b">
+      <c r="L15" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1105,22 +1187,22 @@
       <c r="F16">
         <v>15</v>
       </c>
-      <c r="G16">
-        <v>15</v>
+      <c r="G16" t="s">
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
         <v>13</v>
       </c>
-      <c r="L16" t="b">
+      <c r="L16" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1143,22 +1225,22 @@
       <c r="F17">
         <v>16</v>
       </c>
-      <c r="G17">
-        <v>16</v>
+      <c r="G17" t="s">
+        <v>58</v>
       </c>
       <c r="H17" t="s">
         <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" t="b">
+      <c r="L17" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1181,22 +1263,22 @@
       <c r="F18">
         <v>17</v>
       </c>
-      <c r="G18">
-        <v>17</v>
+      <c r="G18" t="s">
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" t="b">
+      <c r="L18" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1219,22 +1301,22 @@
       <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19">
-        <v>18</v>
+      <c r="G19" t="s">
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
         <v>13</v>
       </c>
-      <c r="L19" t="b">
+      <c r="L19" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1257,22 +1339,22 @@
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20">
-        <v>19</v>
+      <c r="G20" t="s">
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20" t="s">
         <v>13</v>
       </c>
-      <c r="L20" t="b">
+      <c r="L20" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1295,22 +1377,22 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21">
-        <v>20</v>
+      <c r="G21" t="s">
+        <v>62</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="L21" t="b">
+      <c r="L21" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1333,22 +1415,22 @@
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22">
-        <v>21</v>
+      <c r="G22" t="s">
+        <v>63</v>
       </c>
       <c r="H22" t="s">
         <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22" t="s">
         <v>13</v>
       </c>
-      <c r="L22" t="b">
+      <c r="L22" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1371,22 +1453,22 @@
       <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23">
-        <v>22</v>
+      <c r="G23" t="s">
+        <v>64</v>
       </c>
       <c r="H23" t="s">
         <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" t="s">
         <v>13</v>
       </c>
-      <c r="L23" t="b">
+      <c r="L23" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1409,22 +1491,22 @@
       <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24">
-        <v>23</v>
+      <c r="G24" t="s">
+        <v>65</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
         <v>13</v>
       </c>
-      <c r="L24" t="b">
+      <c r="L24" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1447,22 +1529,22 @@
       <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25">
-        <v>24</v>
+      <c r="G25" t="s">
+        <v>66</v>
       </c>
       <c r="H25" t="s">
         <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25" t="s">
         <v>13</v>
       </c>
-      <c r="L25" t="b">
+      <c r="L25" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1485,22 +1567,22 @@
       <c r="F26">
         <v>25</v>
       </c>
-      <c r="G26">
-        <v>25</v>
+      <c r="G26" t="s">
+        <v>67</v>
       </c>
       <c r="H26" t="s">
         <v>37</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26" t="s">
         <v>13</v>
       </c>
-      <c r="L26" t="b">
+      <c r="L26" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1523,26 +1605,27 @@
       <c r="F27">
         <v>26</v>
       </c>
-      <c r="G27">
-        <v>26</v>
+      <c r="G27" t="s">
+        <v>68</v>
       </c>
       <c r="H27" t="s">
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27" t="s">
         <v>13</v>
       </c>
-      <c r="L27" t="b">
+      <c r="L27" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>